--- a/NUReport.xlsx
+++ b/NUReport.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NU Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NU Report" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,27 +384,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Order Balance_past</t>
+          <t>Order Balance</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Prod Balance_past</t>
+          <t>Prod Balance</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Confirmed CTP_future</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Order Balance_future</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Prod Balance_future</t>
         </is>
       </c>
     </row>
@@ -435,16 +425,6 @@
           <t>None</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -470,49 +450,33 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B11314</t>
+          <t>B11234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-02-15</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -521,12 +485,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B11451</t>
+          <t>B11314</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -535,21 +499,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -576,49 +534,33 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B45646</t>
+          <t>B11451</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-03-01</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -627,76 +569,144 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B65311</t>
+          <t>B11451</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CommaAI</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+          <t>None</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>B45646</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B65311</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CommaAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B65311</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CommaAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>B84654</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Capital One</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2020-02-13</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D12" t="n">
         <v>38</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>